--- a/qos-simulator/4-strategies.xlsx
+++ b/qos-simulator/4-strategies.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\houss\Desktop\repos\self-protection\qos-simulator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alessandro\Documents\projects\self-protection\qos-simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6ED057-B12F-4F4D-BF28-0EE38C7279B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B54C042-F863-4846-BD0E-ECB764B88526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -711,24 +711,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6328125" customWidth="1"/>
-    <col min="9" max="9" width="36.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="71.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="71.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -747,11 +748,12 @@
       <c r="F1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J1" t="s">
+      <c r="H1" s="1"/>
+      <c r="J1" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -771,7 +773,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -797,7 +799,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -817,7 +819,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -837,7 +839,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -857,7 +859,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -877,7 +879,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -897,7 +899,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -917,7 +919,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -943,7 +945,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -969,7 +971,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -995,7 +997,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1015,7 +1017,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1041,7 +1043,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1067,7 +1069,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1087,7 +1089,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1107,7 +1109,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1127,7 +1129,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1153,7 +1155,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1179,7 +1181,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1205,7 +1207,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1231,7 +1233,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1257,7 +1259,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1277,7 +1279,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1303,7 +1305,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>

--- a/qos-simulator/4-strategies.xlsx
+++ b/qos-simulator/4-strategies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alessandro\Documents\projects\self-protection\qos-simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B54C042-F863-4846-BD0E-ECB764B88526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537C1911-C8E2-412D-9C1E-A8065B786B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -711,25 +711,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="71.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="71.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -753,7 +753,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -773,7 +773,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -799,7 +799,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -819,7 +819,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -839,7 +839,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -859,7 +859,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -879,7 +879,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -899,7 +899,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -919,7 +919,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -945,7 +945,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -971,7 +971,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -997,7 +997,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
